--- a/02-Avancado1-Funcoes/02-FuncoesBasicas/Aula-11-ExcelAvancado1-PlanilhaDeFrutas-FuncoesBasicas.xlsx
+++ b/02-Avancado1-Funcoes/02-FuncoesBasicas/Aula-11-ExcelAvancado1-PlanilhaDeFrutas-FuncoesBasicas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\03-FuncoesBasicas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Documents\msexcel\02-Avancado1-Funcoes\02-FuncoesBasicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947A4130-9CB8-4DD3-BB43-200A47AE5041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B36AB3D-EA00-49F8-8F24-4C8F65062474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha Frutas" sheetId="4" r:id="rId1"/>
@@ -427,7 +427,7 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> Quando se trabalha com a Função =SUBTOTAL() integrado com Filtros e executando cálculos com várias linhas no final da planilha e utilizando as funções Soma, Média, Máximo, Mínimo etc, com rótulos e células mescladas e resumo nas linhas inferiores, pode acontecer falhas na hora de filtrar (Erro de Argumento ou Valores Vazio), devido a campos vazios abaixo da planilha, nesse cenário, no filtro deve-se selecionar a opção vazio.</t>
+      <t xml:space="preserve"> Quando se trabalha com a Função =SUBTOTAL() integrado com Filtros e executando cálculos com várias linhas no final da planilha e utilizando as funções Soma, Média, Máximo, Mínimo etc, com rótulos, células mescladas e resumo nas linhas inferiores, pode acontecer falhas na hora de filtrar (Erro de Argumento ou Valores Vazio), devido a campos vazios abaixo da planilha, nesse cenário, no filtro deve-se selecionar a opção vazio.</t>
     </r>
   </si>
 </sst>
@@ -438,7 +438,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color indexed="63"/>
@@ -552,12 +552,6 @@
       <color rgb="FF0070C0"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -718,14 +712,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1854,23 +1848,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="17" width="9" customWidth="1"/>
     <col min="18" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="13.8">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="14.25">
       <c r="A1" s="20"/>
     </row>
     <row r="2" spans="1:9" s="21" customFormat="1" ht="14.25" customHeight="1">
@@ -1885,7 +1879,7 @@
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
     </row>
-    <row r="3" spans="1:9" s="21" customFormat="1" ht="13.8">
+    <row r="3" spans="1:9" s="21" customFormat="1" ht="14.25">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -1895,7 +1889,7 @@
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
     </row>
-    <row r="4" spans="1:9" s="21" customFormat="1" ht="13.8">
+    <row r="4" spans="1:9" s="21" customFormat="1" ht="14.25">
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -1905,7 +1899,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
     </row>
-    <row r="5" spans="1:9" s="21" customFormat="1" ht="13.8">
+    <row r="5" spans="1:9" s="21" customFormat="1" ht="14.25">
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -1915,7 +1909,7 @@
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
     </row>
-    <row r="6" spans="1:9" s="21" customFormat="1" ht="13.8">
+    <row r="6" spans="1:9" s="21" customFormat="1" ht="14.25">
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
@@ -1933,7 +1927,7 @@
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="B8" s="27" t="s">
         <v>41</v>
       </c>
@@ -1949,7 +1943,7 @@
       </c>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -1961,7 +1955,7 @@
       </c>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6">
+    <row r="10" spans="1:9" ht="15.75">
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -2021,7 +2015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6">
+    <row r="13" spans="1:9" ht="15.75">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2039,7 +2033,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6">
+    <row r="14" spans="1:9" ht="15.75">
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2057,7 +2051,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6">
+    <row r="15" spans="1:9" ht="15.75">
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
@@ -2075,7 +2069,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6">
+    <row r="16" spans="1:9" ht="15.75">
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
@@ -2093,7 +2087,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="2:9" ht="15.6">
+    <row r="17" spans="2:9" ht="15.75">
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
@@ -2111,7 +2105,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="2:9" ht="15.6">
+    <row r="18" spans="2:9" ht="15.75">
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,7 +2123,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="2:9" ht="15.6">
+    <row r="19" spans="2:9" ht="15.75">
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
@@ -2147,7 +2141,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="2:9" ht="15.6">
+    <row r="20" spans="2:9" ht="15.75">
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
@@ -2165,55 +2159,55 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="2:9" ht="15.6">
-      <c r="B21" s="32" t="s">
+    <row r="21" spans="2:9" ht="15.75">
+      <c r="B21" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="2:9" ht="15.6">
-      <c r="B22" s="32" t="s">
+    <row r="22" spans="2:9" ht="15.75">
+      <c r="B22" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="2:9" ht="15.6">
-      <c r="B23" s="32" t="s">
+    <row r="23" spans="2:9" ht="15.75">
+      <c r="B23" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="2:9" ht="15.6">
-      <c r="B24" s="32" t="s">
+    <row r="24" spans="2:9" ht="15.75">
+      <c r="B24" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="2:9" ht="15.6">
+    <row r="25" spans="2:9" ht="15.75">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2223,7 +2217,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="2:9" ht="15.6">
+    <row r="26" spans="2:9" ht="15.75">
       <c r="B26" s="25" t="s">
         <v>27</v>
       </c>
@@ -2239,7 +2233,7 @@
       </c>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" spans="2:9" ht="15.6">
+    <row r="27" spans="2:9" ht="15.75">
       <c r="B27" s="17" t="s">
         <v>2</v>
       </c>
@@ -2261,7 +2255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15.6">
+    <row r="28" spans="2:9" ht="15.75">
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
@@ -2277,7 +2271,7 @@
       </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="2:9" ht="15.6">
+    <row r="29" spans="2:9" ht="15.75">
       <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
@@ -2293,7 +2287,7 @@
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="2:9" ht="15.6">
+    <row r="30" spans="2:9" ht="15.75">
       <c r="B30" s="1" t="s">
         <v>21</v>
       </c>
@@ -2309,7 +2303,7 @@
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="2:9" ht="15.6">
+    <row r="31" spans="2:9" ht="15.75">
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
@@ -2325,7 +2319,7 @@
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="2:9" ht="15.6">
+    <row r="32" spans="2:9" ht="15.75">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2396,21 +2390,21 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" hidden="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="13.8">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="14.25">
       <c r="A1" s="20"/>
     </row>
     <row r="2" spans="1:8" s="21" customFormat="1" ht="14.25" customHeight="1">
@@ -2424,7 +2418,7 @@
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="1:8" s="21" customFormat="1" ht="13.8">
+    <row r="3" spans="1:8" s="21" customFormat="1" ht="14.25">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -2433,7 +2427,7 @@
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="1:8" s="21" customFormat="1" ht="13.8">
+    <row r="4" spans="1:8" s="21" customFormat="1" ht="14.25">
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -2442,7 +2436,7 @@
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="1:8" s="21" customFormat="1" ht="13.8">
+    <row r="5" spans="1:8" s="21" customFormat="1" ht="14.25">
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -2451,7 +2445,7 @@
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="1:8" s="21" customFormat="1" ht="13.8">
+    <row r="6" spans="1:8" s="21" customFormat="1" ht="14.25">
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
@@ -2469,10 +2463,10 @@
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="32" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -2492,8 +2486,8 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="10" t="s">
         <v>9</v>
       </c>
@@ -2510,7 +2504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.6">
+    <row r="10" spans="1:8" ht="15.75">
       <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
@@ -2535,7 +2529,7 @@
         <v>8778</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.6">
+    <row r="11" spans="1:8" ht="15.75">
       <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
@@ -2560,7 +2554,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" spans="1:8" ht="15.75">
       <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
@@ -2585,7 +2579,7 @@
         <v>4812.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" spans="1:8" ht="15.75">
       <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
@@ -2610,7 +2604,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" spans="1:8" ht="15.75">
       <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
@@ -2635,7 +2629,7 @@
         <v>34650</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.6">
+    <row r="15" spans="1:8" ht="15.75">
       <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
@@ -2660,7 +2654,7 @@
         <v>15125</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" spans="1:8" ht="15.75">
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
@@ -2685,7 +2679,7 @@
         <v>40485.5</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15.6">
+    <row r="17" spans="2:8" ht="15.75">
       <c r="B17" s="11" t="s">
         <v>22</v>
       </c>
@@ -2710,12 +2704,12 @@
         <v>74250</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="15.6">
-      <c r="B18" s="30" t="s">
+    <row r="18" spans="2:8" ht="15.75">
+      <c r="B18" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="14">
         <f t="shared" ref="E18:H18" si="2">SUBTOTAL(9,E10:E17)</f>
         <v>36500</v>
@@ -2733,12 +2727,12 @@
         <v>186901</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15.6">
-      <c r="B19" s="30" t="s">
+    <row r="19" spans="2:8" ht="15.75">
+      <c r="B19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="14">
         <f>SUBTOTAL(1,E10:E17)</f>
         <v>4562.5</v>
@@ -2756,12 +2750,12 @@
         <v>23362.625</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.6">
-      <c r="B20" s="30" t="s">
+    <row r="20" spans="2:8" ht="15.75">
+      <c r="B20" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="14">
         <f>SUBTOTAL(4,E10:E17)</f>
         <v>8500</v>
@@ -2779,12 +2773,12 @@
         <v>74250</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="15.6">
-      <c r="B21" s="30" t="s">
+    <row r="21" spans="2:8" ht="15.75">
+      <c r="B21" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="14">
         <f>SUBTOTAL(5,E10:E17)</f>
         <v>1000</v>
@@ -2825,22 +2819,22 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" hidden="1"/>
+    <col min="11" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="13.8">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="14.25">
       <c r="A1" s="20"/>
     </row>
     <row r="2" spans="1:8" s="21" customFormat="1" ht="14.25" customHeight="1">
@@ -2854,7 +2848,7 @@
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="1:8" s="21" customFormat="1" ht="13.8">
+    <row r="3" spans="1:8" s="21" customFormat="1" ht="14.25">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -2863,7 +2857,7 @@
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="1:8" s="21" customFormat="1" ht="13.8">
+    <row r="4" spans="1:8" s="21" customFormat="1" ht="14.25">
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -2872,7 +2866,7 @@
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="1:8" s="21" customFormat="1" ht="13.8">
+    <row r="5" spans="1:8" s="21" customFormat="1" ht="14.25">
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -2881,7 +2875,7 @@
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="1:8" s="21" customFormat="1" ht="13.8">
+    <row r="6" spans="1:8" s="21" customFormat="1" ht="14.25">
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
@@ -2899,11 +2893,11 @@
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="15">
         <f>SUBTOTAL(9,E14:E21)</f>
         <v>36500</v>
@@ -2922,11 +2916,11 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="15">
         <f>SUBTOTAL(1,E14:E21)</f>
         <v>4562.5</v>
@@ -2945,11 +2939,11 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="15">
         <f>SUBTOTAL(4,E14:E21)</f>
         <v>8500</v>
@@ -2968,11 +2962,11 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="15">
         <f>SUBTOTAL(5,E14:E21)</f>
         <v>1000</v>
@@ -2991,10 +2985,10 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="32" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -3014,8 +3008,8 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="10" t="s">
         <v>9</v>
       </c>
@@ -3032,7 +3026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" spans="1:8" ht="15.75">
       <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
@@ -3057,7 +3051,7 @@
         <v>8778</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.6">
+    <row r="15" spans="1:8" ht="15.75">
       <c r="B15" s="11" t="s">
         <v>13</v>
       </c>
@@ -3082,7 +3076,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" spans="1:8" ht="15.75">
       <c r="B16" s="11" t="s">
         <v>15</v>
       </c>
@@ -3107,7 +3101,7 @@
         <v>4812.5</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15.6">
+    <row r="17" spans="2:8" ht="15.75">
       <c r="B17" s="11" t="s">
         <v>17</v>
       </c>
@@ -3132,7 +3126,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="15.6">
+    <row r="18" spans="2:8" ht="15.75">
       <c r="B18" s="11" t="s">
         <v>18</v>
       </c>
@@ -3157,7 +3151,7 @@
         <v>34650</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15.6">
+    <row r="19" spans="2:8" ht="15.75">
       <c r="B19" s="11" t="s">
         <v>19</v>
       </c>
@@ -3182,7 +3176,7 @@
         <v>15125</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.6">
+    <row r="20" spans="2:8" ht="15.75">
       <c r="B20" s="11" t="s">
         <v>20</v>
       </c>
@@ -3207,7 +3201,7 @@
         <v>40485.5</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="15.6">
+    <row r="21" spans="2:8" ht="15.75">
       <c r="B21" s="11" t="s">
         <v>22</v>
       </c>
